--- a/Part 2/times/BST times.xlsx
+++ b/Part 2/times/BST times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\uni\2_anno\progettoAlgoritmi\ProjectASD_1\Part 2\times\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A954175C-7E47-45D1-9366-8CB0E7BC8921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872335D4-A8F8-4888-92B8-CDAFED6D11DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36330,8 +36330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36695,7 +36695,7 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15"/>
